--- a/毕设题目.xlsx
+++ b/毕设题目.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>电商122</t>
   </si>
@@ -52,7 +52,7 @@
   </si>
   <si>
     <t>唐山市海润水产养殖技术有限公司网站策划方案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>赵璐</t>
@@ -65,21 +65,21 @@
   </si>
   <si>
     <t>白一婷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>多肉萌宠大本营或多肉联盟</t>
   </si>
   <si>
     <t>陈晓怡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>关于房地产方面的网站策划内容</t>
   </si>
   <si>
     <t>李怡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>“水云间”特产网站设计与实现</t>
@@ -92,46 +92,112 @@
   </si>
   <si>
     <t>彩妆美妆网站设计与推广</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>谷富娟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>股市交流论坛以及股市信息发布网站</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>张天泽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>外地人在大连网站的设计与推广</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>郭瑶</t>
   </si>
   <si>
     <t>运动健身潮流社区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>美甲网站，虚拟一个线下商家做一个O2O网站</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘玲玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电影网站设计与推广</t>
+  </si>
+  <si>
+    <t>珍甲美甲020网站设计与推广</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitness潮流社区网站</t>
+  </si>
+  <si>
+    <t>“小城市”门窗俱乐部网站设计与推广</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>“水云间”特产网站设计与规划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多肉萌宠大联盟网站设计与实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA2百科网站的设计与推广</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐山市海润水产养殖技术有限公司网站营销策划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>马文博</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰画和书法作品租售网站建设与推广</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尼罕海娜养发网站设计与实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新昌县便民网站设计与推广</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>“称心如衣”网站设计与推广--DIY个性化服装定制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据时代房地产与电子商务的完美结合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,46 +248,55 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -527,192 +602,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F16"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="35.5" customWidth="1"/>
+    <col min="5" max="5" width="39.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C1" t="s">
+    <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>28</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C2" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="12"/>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D10" s="1">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B12" s="12"/>
+      <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D12" s="1">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="13" spans="2:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B13" s="12"/>
+      <c r="C13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D14" s="6">
         <v>26</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D15" s="7">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D16" s="6">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D17" s="6">
         <v>29</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1">
-        <v>19</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1">
-        <v>28</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -726,7 +858,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -739,7 +871,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>